--- a/importacion/IMPORTACION-HIDROCARBUROS-VOLUMEN-2024-2025.xlsx
+++ b/importacion/IMPORTACION-HIDROCARBUROS-VOLUMEN-2024-2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEDERICHSOLIS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512c8a678426f22b/Documents/GitHub/Series_de_Tiempo/importacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA04F42-469D-4676-879A-24F12CD2FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -22,7 +22,7 @@
     <definedName name="Z_E7D9C739_2283_499A_9BFD_F79F5FAF773B_.wvu.PrintArea" localSheetId="0">#REF!</definedName>
     <definedName name="Z_E7D9C739_2283_499A_9BFD_F79F5FAF773B_.wvu.PrintTitles" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
